--- a/natmiOut/OldD4/LR-pairs_lrc2p/Ccl5-Sdc4.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Ccl5-Sdc4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Sdc4</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>6.87530488488643</v>
+        <v>0.9331043333333334</v>
       </c>
       <c r="H2">
-        <v>6.87530488488643</v>
+        <v>2.799313</v>
       </c>
       <c r="I2">
-        <v>0.3314424897862902</v>
+        <v>0.0200380644147157</v>
       </c>
       <c r="J2">
-        <v>0.3314424897862902</v>
+        <v>0.0201696361339749</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.30728191244885</v>
+        <v>2.118096666666667</v>
       </c>
       <c r="N2">
-        <v>1.30728191244885</v>
+        <v>6.354290000000001</v>
       </c>
       <c r="O2">
-        <v>0.01306944100199914</v>
+        <v>0.01939632514349435</v>
       </c>
       <c r="P2">
-        <v>0.01306944100199914</v>
+        <v>0.02251552750188864</v>
       </c>
       <c r="Q2">
-        <v>8.987961718583252</v>
+        <v>1.976405178085556</v>
       </c>
       <c r="R2">
-        <v>8.987961718583252</v>
+        <v>17.78764660277</v>
       </c>
       <c r="S2">
-        <v>0.004331768065817624</v>
+        <v>0.0003886648126341096</v>
       </c>
       <c r="T2">
-        <v>0.004331768065817624</v>
+        <v>0.0004541299970775988</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>6.87530488488643</v>
+        <v>0.9331043333333334</v>
       </c>
       <c r="H3">
-        <v>6.87530488488643</v>
+        <v>2.799313</v>
       </c>
       <c r="I3">
-        <v>0.3314424897862902</v>
+        <v>0.0200380644147157</v>
       </c>
       <c r="J3">
-        <v>0.3314424897862902</v>
+        <v>0.0201696361339749</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>16.3633152749799</v>
+        <v>18.067884</v>
       </c>
       <c r="N3">
-        <v>16.3633152749799</v>
+        <v>54.20365200000001</v>
       </c>
       <c r="O3">
-        <v>0.1635908686159757</v>
+        <v>0.1654554101491777</v>
       </c>
       <c r="P3">
-        <v>0.1635908686159757</v>
+        <v>0.1920629712066653</v>
       </c>
       <c r="Q3">
-        <v>112.502781443006</v>
+        <v>16.859220854564</v>
       </c>
       <c r="R3">
-        <v>112.502781443006</v>
+        <v>151.732987691076</v>
       </c>
       <c r="S3">
-        <v>0.05422096480038085</v>
+        <v>0.003315406166332429</v>
       </c>
       <c r="T3">
-        <v>0.05422096480038085</v>
+        <v>0.003873840244048537</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>6.87530488488643</v>
+        <v>0.9331043333333334</v>
       </c>
       <c r="H4">
-        <v>6.87530488488643</v>
+        <v>2.799313</v>
       </c>
       <c r="I4">
-        <v>0.3314424897862902</v>
+        <v>0.0200380644147157</v>
       </c>
       <c r="J4">
-        <v>0.3314424897862902</v>
+        <v>0.0201696361339749</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.7091587573805</v>
+        <v>21.713181</v>
       </c>
       <c r="N4">
-        <v>18.7091587573805</v>
+        <v>65.139543</v>
       </c>
       <c r="O4">
-        <v>0.1870432415901626</v>
+        <v>0.198836967737801</v>
       </c>
       <c r="P4">
-        <v>0.1870432415901626</v>
+        <v>0.2308127535691568</v>
       </c>
       <c r="Q4">
-        <v>128.6311705967339</v>
+        <v>20.260663281551</v>
       </c>
       <c r="R4">
-        <v>128.6311705967339</v>
+        <v>182.345969533959</v>
       </c>
       <c r="S4">
-        <v>0.06199407769034208</v>
+        <v>0.003984307967556805</v>
       </c>
       <c r="T4">
-        <v>0.06199407769034208</v>
+        <v>0.00465540925457071</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>6.87530488488643</v>
+        <v>0.9331043333333334</v>
       </c>
       <c r="H5">
-        <v>6.87530488488643</v>
+        <v>2.799313</v>
       </c>
       <c r="I5">
-        <v>0.3314424897862902</v>
+        <v>0.0200380644147157</v>
       </c>
       <c r="J5">
-        <v>0.3314424897862902</v>
+        <v>0.0201696361339749</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>18.590063104633</v>
+        <v>21.91711333333333</v>
       </c>
       <c r="N5">
-        <v>18.590063104633</v>
+        <v>65.75134</v>
       </c>
       <c r="O5">
-        <v>0.1858525928155136</v>
+        <v>0.2007044641117176</v>
       </c>
       <c r="P5">
-        <v>0.1858525928155136</v>
+        <v>0.2329805696712033</v>
       </c>
       <c r="Q5">
-        <v>127.8123516736302</v>
+        <v>20.45095342549111</v>
       </c>
       <c r="R5">
-        <v>127.8123516736302</v>
+        <v>184.05858082942</v>
       </c>
       <c r="S5">
-        <v>0.06159944609601142</v>
+        <v>0.004021728980191593</v>
       </c>
       <c r="T5">
-        <v>0.06159944609601142</v>
+        <v>0.004699133316554359</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>6.87530488488643</v>
+        <v>0.9331043333333334</v>
       </c>
       <c r="H6">
-        <v>6.87530488488643</v>
+        <v>2.799313</v>
       </c>
       <c r="I6">
-        <v>0.3314424897862902</v>
+        <v>0.0200380644147157</v>
       </c>
       <c r="J6">
-        <v>0.3314424897862902</v>
+        <v>0.0201696361339749</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>45.0560284408126</v>
+        <v>45.38465100000001</v>
       </c>
       <c r="N6">
-        <v>45.0560284408126</v>
+        <v>90.76930200000001</v>
       </c>
       <c r="O6">
-        <v>0.4504438559763489</v>
+        <v>0.4156068328578093</v>
       </c>
       <c r="P6">
-        <v>0.4504438559763489</v>
+        <v>0.3216281780510861</v>
       </c>
       <c r="Q6">
-        <v>309.7739324327007</v>
+        <v>42.34861451492101</v>
       </c>
       <c r="R6">
-        <v>309.7739324327007</v>
+        <v>254.091687089526</v>
       </c>
       <c r="S6">
-        <v>0.1492962331337382</v>
+        <v>0.008327956488000764</v>
       </c>
       <c r="T6">
-        <v>0.1492962331337382</v>
+        <v>0.006487123321723699</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.846178422799589</v>
+        <v>7.466229000000001</v>
       </c>
       <c r="H7">
-        <v>8.846178422799589</v>
+        <v>22.398687</v>
       </c>
       <c r="I7">
-        <v>0.4264537283272617</v>
+        <v>0.1603344581013467</v>
       </c>
       <c r="J7">
-        <v>0.4264537283272617</v>
+        <v>0.1613872284624099</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.30728191244885</v>
+        <v>2.118096666666667</v>
       </c>
       <c r="N7">
-        <v>1.30728191244885</v>
+        <v>6.354290000000001</v>
       </c>
       <c r="O7">
-        <v>0.01306944100199914</v>
+        <v>0.01939632514349435</v>
       </c>
       <c r="P7">
-        <v>0.01306944100199914</v>
+        <v>0.02251552750188864</v>
       </c>
       <c r="Q7">
-        <v>11.5644490464212</v>
+        <v>15.81419475747</v>
       </c>
       <c r="R7">
-        <v>11.5644490464212</v>
+        <v>142.32775281723</v>
       </c>
       <c r="S7">
-        <v>0.005573511842455719</v>
+        <v>0.003109899281039693</v>
       </c>
       <c r="T7">
-        <v>0.005573511842455719</v>
+        <v>0.003633718580898975</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.846178422799589</v>
+        <v>7.466229000000001</v>
       </c>
       <c r="H8">
-        <v>8.846178422799589</v>
+        <v>22.398687</v>
       </c>
       <c r="I8">
-        <v>0.4264537283272617</v>
+        <v>0.1603344581013467</v>
       </c>
       <c r="J8">
-        <v>0.4264537283272617</v>
+        <v>0.1613872284624099</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.3633152749799</v>
+        <v>18.067884</v>
       </c>
       <c r="N8">
-        <v>16.3633152749799</v>
+        <v>54.20365200000001</v>
       </c>
       <c r="O8">
-        <v>0.1635908686159757</v>
+        <v>0.1654554101491777</v>
       </c>
       <c r="P8">
-        <v>0.1635908686159757</v>
+        <v>0.1920629712066653</v>
       </c>
       <c r="Q8">
-        <v>144.7528065109941</v>
+        <v>134.898959489436</v>
       </c>
       <c r="R8">
-        <v>144.7528065109941</v>
+        <v>1214.090635404924</v>
       </c>
       <c r="S8">
-        <v>0.06976393584157806</v>
+        <v>0.02652820352620447</v>
       </c>
       <c r="T8">
-        <v>0.06976393584157806</v>
+        <v>0.03099651061329934</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.846178422799589</v>
+        <v>7.466229000000001</v>
       </c>
       <c r="H9">
-        <v>8.846178422799589</v>
+        <v>22.398687</v>
       </c>
       <c r="I9">
-        <v>0.4264537283272617</v>
+        <v>0.1603344581013467</v>
       </c>
       <c r="J9">
-        <v>0.4264537283272617</v>
+        <v>0.1613872284624099</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>18.7091587573805</v>
+        <v>21.713181</v>
       </c>
       <c r="N9">
-        <v>18.7091587573805</v>
+        <v>65.139543</v>
       </c>
       <c r="O9">
-        <v>0.1870432415901626</v>
+        <v>0.198836967737801</v>
       </c>
       <c r="P9">
-        <v>0.1870432415901626</v>
+        <v>0.2308127535691568</v>
       </c>
       <c r="Q9">
-        <v>165.5045565082713</v>
+        <v>162.1155816644491</v>
       </c>
       <c r="R9">
-        <v>165.5045565082713</v>
+        <v>1459.040234980041</v>
       </c>
       <c r="S9">
-        <v>0.0797652877345416</v>
+        <v>0.03188041747275529</v>
       </c>
       <c r="T9">
-        <v>0.0797652877345416</v>
+        <v>0.03725023059230342</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.846178422799589</v>
+        <v>7.466229000000001</v>
       </c>
       <c r="H10">
-        <v>8.846178422799589</v>
+        <v>22.398687</v>
       </c>
       <c r="I10">
-        <v>0.4264537283272617</v>
+        <v>0.1603344581013467</v>
       </c>
       <c r="J10">
-        <v>0.4264537283272617</v>
+        <v>0.1613872284624099</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>18.590063104633</v>
+        <v>21.91711333333333</v>
       </c>
       <c r="N10">
-        <v>18.590063104633</v>
+        <v>65.75134</v>
       </c>
       <c r="O10">
-        <v>0.1858525928155136</v>
+        <v>0.2007044641117176</v>
       </c>
       <c r="P10">
-        <v>0.1858525928155136</v>
+        <v>0.2329805696712033</v>
       </c>
       <c r="Q10">
-        <v>164.4510151146872</v>
+        <v>163.63818716562</v>
       </c>
       <c r="R10">
-        <v>164.4510151146872</v>
+        <v>1472.74368449058</v>
       </c>
       <c r="S10">
-        <v>0.07925753112546426</v>
+        <v>0.03217984149187343</v>
       </c>
       <c r="T10">
-        <v>0.07925753112546426</v>
+        <v>0.03760008842482888</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>8.846178422799589</v>
+        <v>7.466229000000001</v>
       </c>
       <c r="H11">
-        <v>8.846178422799589</v>
+        <v>22.398687</v>
       </c>
       <c r="I11">
-        <v>0.4264537283272617</v>
+        <v>0.1603344581013467</v>
       </c>
       <c r="J11">
-        <v>0.4264537283272617</v>
+        <v>0.1613872284624099</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>45.0560284408126</v>
+        <v>45.38465100000001</v>
       </c>
       <c r="N11">
-        <v>45.0560284408126</v>
+        <v>90.76930200000001</v>
       </c>
       <c r="O11">
-        <v>0.4504438559763489</v>
+        <v>0.4156068328578093</v>
       </c>
       <c r="P11">
-        <v>0.4504438559763489</v>
+        <v>0.3216281780510861</v>
       </c>
       <c r="Q11">
-        <v>398.573666610161</v>
+        <v>338.8521974510791</v>
       </c>
       <c r="R11">
-        <v>398.573666610161</v>
+        <v>2033.113184706474</v>
       </c>
       <c r="S11">
-        <v>0.1920934617832221</v>
+        <v>0.06663609632947384</v>
       </c>
       <c r="T11">
-        <v>0.1920934617832221</v>
+        <v>0.05190668025107926</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.17172141548251</v>
+        <v>29.07980133333333</v>
       </c>
       <c r="H12">
-        <v>4.17172141548251</v>
+        <v>87.23940399999999</v>
       </c>
       <c r="I12">
-        <v>0.2011090061884797</v>
+        <v>0.6244777903912161</v>
       </c>
       <c r="J12">
-        <v>0.2011090061884797</v>
+        <v>0.6285781672949164</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.30728191244885</v>
+        <v>2.118096666666667</v>
       </c>
       <c r="N12">
-        <v>1.30728191244885</v>
+        <v>6.354290000000001</v>
       </c>
       <c r="O12">
-        <v>0.01306944100199914</v>
+        <v>0.01939632514349435</v>
       </c>
       <c r="P12">
-        <v>0.01306944100199914</v>
+        <v>0.02251552750188864</v>
       </c>
       <c r="Q12">
-        <v>5.453615950235799</v>
+        <v>61.59383027146222</v>
       </c>
       <c r="R12">
-        <v>5.453615950235799</v>
+        <v>554.34447244316</v>
       </c>
       <c r="S12">
-        <v>0.002628382291351017</v>
+        <v>0.01211257426731894</v>
       </c>
       <c r="T12">
-        <v>0.002628382291351017</v>
+        <v>0.01415276901281545</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.17172141548251</v>
+        <v>29.07980133333333</v>
       </c>
       <c r="H13">
-        <v>4.17172141548251</v>
+        <v>87.23940399999999</v>
       </c>
       <c r="I13">
-        <v>0.2011090061884797</v>
+        <v>0.6244777903912161</v>
       </c>
       <c r="J13">
-        <v>0.2011090061884797</v>
+        <v>0.6285781672949164</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>16.3633152749799</v>
+        <v>18.067884</v>
       </c>
       <c r="N13">
-        <v>16.3633152749799</v>
+        <v>54.20365200000001</v>
       </c>
       <c r="O13">
-        <v>0.1635908686159757</v>
+        <v>0.1654554101491777</v>
       </c>
       <c r="P13">
-        <v>0.1635908686159757</v>
+        <v>0.1920629712066653</v>
       </c>
       <c r="Q13">
-        <v>68.26319276092573</v>
+        <v>525.4104772337121</v>
       </c>
       <c r="R13">
-        <v>68.26319276092573</v>
+        <v>4728.694295103408</v>
       </c>
       <c r="S13">
-        <v>0.03289959700886902</v>
+        <v>0.1033232289382309</v>
       </c>
       <c r="T13">
-        <v>0.03289959700886902</v>
+        <v>0.120726590446302</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.17172141548251</v>
+        <v>29.07980133333333</v>
       </c>
       <c r="H14">
-        <v>4.17172141548251</v>
+        <v>87.23940399999999</v>
       </c>
       <c r="I14">
-        <v>0.2011090061884797</v>
+        <v>0.6244777903912161</v>
       </c>
       <c r="J14">
-        <v>0.2011090061884797</v>
+        <v>0.6285781672949164</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>18.7091587573805</v>
+        <v>21.713181</v>
       </c>
       <c r="N14">
-        <v>18.7091587573805</v>
+        <v>65.139543</v>
       </c>
       <c r="O14">
-        <v>0.1870432415901626</v>
+        <v>0.198836967737801</v>
       </c>
       <c r="P14">
-        <v>0.1870432415901626</v>
+        <v>0.2308127535691568</v>
       </c>
       <c r="Q14">
-        <v>78.04939825382638</v>
+        <v>631.414989794708</v>
       </c>
       <c r="R14">
-        <v>78.04939825382638</v>
+        <v>5682.734908152372</v>
       </c>
       <c r="S14">
-        <v>0.03761608043046932</v>
+        <v>0.1241692702609915</v>
       </c>
       <c r="T14">
-        <v>0.03761608043046932</v>
+        <v>0.1450838576267938</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.17172141548251</v>
+        <v>29.07980133333333</v>
       </c>
       <c r="H15">
-        <v>4.17172141548251</v>
+        <v>87.23940399999999</v>
       </c>
       <c r="I15">
-        <v>0.2011090061884797</v>
+        <v>0.6244777903912161</v>
       </c>
       <c r="J15">
-        <v>0.2011090061884797</v>
+        <v>0.6285781672949164</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>18.590063104633</v>
+        <v>21.91711333333333</v>
       </c>
       <c r="N15">
-        <v>18.590063104633</v>
+        <v>65.75134</v>
       </c>
       <c r="O15">
-        <v>0.1858525928155136</v>
+        <v>0.2007044641117176</v>
       </c>
       <c r="P15">
-        <v>0.1858525928155136</v>
+        <v>0.2329805696712033</v>
       </c>
       <c r="Q15">
-        <v>77.55256436876877</v>
+        <v>637.3453015334844</v>
       </c>
       <c r="R15">
-        <v>77.55256436876877</v>
+        <v>5736.10771380136</v>
       </c>
       <c r="S15">
-        <v>0.03737663023868013</v>
+        <v>0.1253354802701385</v>
       </c>
       <c r="T15">
-        <v>0.03737663023868013</v>
+        <v>0.1464464994992506</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.17172141548251</v>
+        <v>29.07980133333333</v>
       </c>
       <c r="H16">
-        <v>4.17172141548251</v>
+        <v>87.23940399999999</v>
       </c>
       <c r="I16">
-        <v>0.2011090061884797</v>
+        <v>0.6244777903912161</v>
       </c>
       <c r="J16">
-        <v>0.2011090061884797</v>
+        <v>0.6285781672949164</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>45.0560284408126</v>
+        <v>45.38465100000001</v>
       </c>
       <c r="N16">
-        <v>45.0560284408126</v>
+        <v>90.76930200000001</v>
       </c>
       <c r="O16">
-        <v>0.4504438559763489</v>
+        <v>0.4156068328578093</v>
       </c>
       <c r="P16">
-        <v>0.4504438559763489</v>
+        <v>0.3216281780510861</v>
       </c>
       <c r="Q16">
-        <v>187.961198743127</v>
+        <v>1319.776634662668</v>
       </c>
       <c r="R16">
-        <v>187.961198743127</v>
+        <v>7918.659807976008</v>
       </c>
       <c r="S16">
-        <v>0.09058831621911022</v>
+        <v>0.2595372366545362</v>
       </c>
       <c r="T16">
-        <v>0.09058831621911022</v>
+        <v>0.2021684507097548</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.85037854317592</v>
+        <v>8.176158000000001</v>
       </c>
       <c r="H17">
-        <v>0.85037854317592</v>
+        <v>24.528474</v>
       </c>
       <c r="I17">
-        <v>0.04099477569796833</v>
+        <v>0.1755799162175431</v>
       </c>
       <c r="J17">
-        <v>0.04099477569796833</v>
+        <v>0.1767327896171896</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.30728191244885</v>
+        <v>2.118096666666667</v>
       </c>
       <c r="N17">
-        <v>1.30728191244885</v>
+        <v>6.354290000000001</v>
       </c>
       <c r="O17">
-        <v>0.01306944100199914</v>
+        <v>0.01939632514349435</v>
       </c>
       <c r="P17">
-        <v>0.01306944100199914</v>
+        <v>0.02251552750188864</v>
       </c>
       <c r="Q17">
-        <v>1.111684488228484</v>
+        <v>17.31789300594</v>
       </c>
       <c r="R17">
-        <v>1.111684488228484</v>
+        <v>155.86103705346</v>
       </c>
       <c r="S17">
-        <v>0.0005357788023747853</v>
+        <v>0.003405605143622963</v>
       </c>
       <c r="T17">
-        <v>0.0005357788023747853</v>
+        <v>0.003979231985111332</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,61 +1517,61 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.85037854317592</v>
+        <v>8.176158000000001</v>
       </c>
       <c r="H18">
-        <v>0.85037854317592</v>
+        <v>24.528474</v>
       </c>
       <c r="I18">
-        <v>0.04099477569796833</v>
+        <v>0.1755799162175431</v>
       </c>
       <c r="J18">
-        <v>0.04099477569796833</v>
+        <v>0.1767327896171896</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>16.3633152749799</v>
+        <v>18.067884</v>
       </c>
       <c r="N18">
-        <v>16.3633152749799</v>
+        <v>54.20365200000001</v>
       </c>
       <c r="O18">
-        <v>0.1635908686159757</v>
+        <v>0.1654554101491777</v>
       </c>
       <c r="P18">
-        <v>0.1635908686159757</v>
+        <v>0.1920629712066653</v>
       </c>
       <c r="Q18">
-        <v>13.91501220506569</v>
+        <v>147.725874309672</v>
       </c>
       <c r="R18">
-        <v>13.91501220506569</v>
+        <v>1329.532868787048</v>
       </c>
       <c r="S18">
-        <v>0.006706370965147728</v>
+        <v>0.02905064705173185</v>
       </c>
       <c r="T18">
-        <v>0.006706370965147728</v>
+        <v>0.03394382468351993</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,61 +1579,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.85037854317592</v>
+        <v>8.176158000000001</v>
       </c>
       <c r="H19">
-        <v>0.85037854317592</v>
+        <v>24.528474</v>
       </c>
       <c r="I19">
-        <v>0.04099477569796833</v>
+        <v>0.1755799162175431</v>
       </c>
       <c r="J19">
-        <v>0.04099477569796833</v>
+        <v>0.1767327896171896</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>18.7091587573805</v>
+        <v>21.713181</v>
       </c>
       <c r="N19">
-        <v>18.7091587573805</v>
+        <v>65.139543</v>
       </c>
       <c r="O19">
-        <v>0.1870432415901626</v>
+        <v>0.198836967737801</v>
       </c>
       <c r="P19">
-        <v>0.1870432415901626</v>
+        <v>0.2308127535691568</v>
       </c>
       <c r="Q19">
-        <v>15.90986716814824</v>
+        <v>177.530398538598</v>
       </c>
       <c r="R19">
-        <v>15.90986716814824</v>
+        <v>1597.773586847382</v>
       </c>
       <c r="S19">
-        <v>0.007667795734809617</v>
+        <v>0.03491177813635343</v>
       </c>
       <c r="T19">
-        <v>0.007667795734809617</v>
+        <v>0.04079218181750203</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1641,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.85037854317592</v>
+        <v>8.176158000000001</v>
       </c>
       <c r="H20">
-        <v>0.85037854317592</v>
+        <v>24.528474</v>
       </c>
       <c r="I20">
-        <v>0.04099477569796833</v>
+        <v>0.1755799162175431</v>
       </c>
       <c r="J20">
-        <v>0.04099477569796833</v>
+        <v>0.1767327896171896</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>18.590063104633</v>
+        <v>21.91711333333333</v>
       </c>
       <c r="N20">
-        <v>18.590063104633</v>
+        <v>65.75134</v>
       </c>
       <c r="O20">
-        <v>0.1858525928155136</v>
+        <v>0.2007044641117176</v>
       </c>
       <c r="P20">
-        <v>0.1858525928155136</v>
+        <v>0.2329805696712033</v>
       </c>
       <c r="Q20">
-        <v>15.80859078046623</v>
+        <v>179.19778151724</v>
       </c>
       <c r="R20">
-        <v>15.80859078046623</v>
+        <v>1612.78003365516</v>
       </c>
       <c r="S20">
-        <v>0.007618985355357821</v>
+        <v>0.03523967299322226</v>
       </c>
       <c r="T20">
-        <v>0.007618985355357821</v>
+        <v>0.04117530600459376</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>8.176158000000001</v>
+      </c>
+      <c r="H21">
+        <v>24.528474</v>
+      </c>
+      <c r="I21">
+        <v>0.1755799162175431</v>
+      </c>
+      <c r="J21">
+        <v>0.1767327896171896</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>45.38465100000001</v>
+      </c>
+      <c r="N21">
+        <v>90.76930200000001</v>
+      </c>
+      <c r="O21">
+        <v>0.4156068328578093</v>
+      </c>
+      <c r="P21">
+        <v>0.3216281780510861</v>
+      </c>
+      <c r="Q21">
+        <v>371.0720773508581</v>
+      </c>
+      <c r="R21">
+        <v>2226.432464105148</v>
+      </c>
+      <c r="S21">
+        <v>0.07297221289261259</v>
+      </c>
+      <c r="T21">
+        <v>0.0568422451264626</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.9112975</v>
+      </c>
+      <c r="H22">
+        <v>1.822595</v>
+      </c>
+      <c r="I22">
+        <v>0.01956977087517835</v>
+      </c>
+      <c r="J22">
+        <v>0.01313217849150916</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>2.118096666666667</v>
+      </c>
+      <c r="N22">
+        <v>6.354290000000001</v>
+      </c>
+      <c r="O22">
+        <v>0.01939632514349435</v>
+      </c>
+      <c r="P22">
+        <v>0.02251552750188864</v>
+      </c>
+      <c r="Q22">
+        <v>1.930216197091667</v>
+      </c>
+      <c r="R22">
+        <v>11.58129718255</v>
+      </c>
+      <c r="S22">
+        <v>0.0003795816388786453</v>
+      </c>
+      <c r="T22">
+        <v>0.000295677925985285</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.9112975</v>
+      </c>
+      <c r="H23">
+        <v>1.822595</v>
+      </c>
+      <c r="I23">
+        <v>0.01956977087517835</v>
+      </c>
+      <c r="J23">
+        <v>0.01313217849150916</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>18.067884</v>
+      </c>
+      <c r="N23">
+        <v>54.20365200000001</v>
+      </c>
+      <c r="O23">
+        <v>0.1654554101491777</v>
+      </c>
+      <c r="P23">
+        <v>0.1920629712066653</v>
+      </c>
+      <c r="Q23">
+        <v>16.46521751949</v>
+      </c>
+      <c r="R23">
+        <v>98.79130511694001</v>
+      </c>
+      <c r="S23">
+        <v>0.003237924466678066</v>
+      </c>
+      <c r="T23">
+        <v>0.002522205219495513</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.9112975</v>
+      </c>
+      <c r="H24">
+        <v>1.822595</v>
+      </c>
+      <c r="I24">
+        <v>0.01956977087517835</v>
+      </c>
+      <c r="J24">
+        <v>0.01313217849150916</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>21.713181</v>
+      </c>
+      <c r="N24">
+        <v>65.139543</v>
+      </c>
+      <c r="O24">
+        <v>0.198836967737801</v>
+      </c>
+      <c r="P24">
+        <v>0.2308127535691568</v>
+      </c>
+      <c r="Q24">
+        <v>19.7871675623475</v>
+      </c>
+      <c r="R24">
+        <v>118.723005374085</v>
+      </c>
+      <c r="S24">
+        <v>0.003891193900143996</v>
+      </c>
+      <c r="T24">
+        <v>0.003031074277986886</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.85037854317592</v>
-      </c>
-      <c r="H21">
-        <v>0.85037854317592</v>
-      </c>
-      <c r="I21">
-        <v>0.04099477569796833</v>
-      </c>
-      <c r="J21">
-        <v>0.04099477569796833</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>45.0560284408126</v>
-      </c>
-      <c r="N21">
-        <v>45.0560284408126</v>
-      </c>
-      <c r="O21">
-        <v>0.4504438559763489</v>
-      </c>
-      <c r="P21">
-        <v>0.4504438559763489</v>
-      </c>
-      <c r="Q21">
-        <v>38.31467982679104</v>
-      </c>
-      <c r="R21">
-        <v>38.31467982679104</v>
-      </c>
-      <c r="S21">
-        <v>0.01846584484027837</v>
-      </c>
-      <c r="T21">
-        <v>0.01846584484027837</v>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.9112975</v>
+      </c>
+      <c r="H25">
+        <v>1.822595</v>
+      </c>
+      <c r="I25">
+        <v>0.01956977087517835</v>
+      </c>
+      <c r="J25">
+        <v>0.01313217849150916</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>21.91711333333333</v>
+      </c>
+      <c r="N25">
+        <v>65.75134</v>
+      </c>
+      <c r="O25">
+        <v>0.2007044641117176</v>
+      </c>
+      <c r="P25">
+        <v>0.2329805696712033</v>
+      </c>
+      <c r="Q25">
+        <v>19.97301058788333</v>
+      </c>
+      <c r="R25">
+        <v>119.8380635273</v>
+      </c>
+      <c r="S25">
+        <v>0.003927740376291769</v>
+      </c>
+      <c r="T25">
+        <v>0.003059542425975728</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.9112975</v>
+      </c>
+      <c r="H26">
+        <v>1.822595</v>
+      </c>
+      <c r="I26">
+        <v>0.01956977087517835</v>
+      </c>
+      <c r="J26">
+        <v>0.01313217849150916</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>45.38465100000001</v>
+      </c>
+      <c r="N26">
+        <v>90.76930200000001</v>
+      </c>
+      <c r="O26">
+        <v>0.4156068328578093</v>
+      </c>
+      <c r="P26">
+        <v>0.3216281780510861</v>
+      </c>
+      <c r="Q26">
+        <v>41.35891899467251</v>
+      </c>
+      <c r="R26">
+        <v>165.43567597869</v>
+      </c>
+      <c r="S26">
+        <v>0.008133330493185873</v>
+      </c>
+      <c r="T26">
+        <v>0.004223678642065751</v>
       </c>
     </row>
   </sheetData>
